--- a/test/file_format_examples/mitutoyo_nonuniform_mock.xlsx
+++ b/test/file_format_examples/mitutoyo_nonuniform_mock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12525" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12930"/>
   </bookViews>
   <sheets>
     <sheet name="Certificate" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>10- Oct -2022</t>
-  </si>
-  <si>
-    <t>and</t>
   </si>
   <si>
     <t>Work Name</t>
@@ -104,9 +101,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -127,21 +124,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -149,16 +131,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,9 +154,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,6 +204,44 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,59 +262,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -280,13 +277,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,7 +331,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,7 +391,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,25 +409,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,115 +445,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,7 +490,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,41 +506,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,7 +529,42 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,148 +573,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,8 +1055,8 @@
   <sheetPr/>
   <dimension ref="B2:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1069,79 +1066,74 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="5:5">
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="43" spans="2:5">
       <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
         <v>2</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>3</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>4</v>
-      </c>
-      <c r="E43" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
         <v>6</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>7</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
         <v>10</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>11</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>12</v>
-      </c>
-      <c r="E47" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
         <v>14</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>15</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>16</v>
-      </c>
-      <c r="E48" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" t="s">
         <v>18</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>19</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>20</v>
-      </c>
-      <c r="E49" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1155,8 +1147,8 @@
   <sheetPr/>
   <dimension ref="A1:F31517"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1168,7 +1160,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1">
         <v>0.0005</v>
@@ -1179,7 +1171,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1">
         <v>0.001</v>
@@ -1190,7 +1182,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1">
         <v>0.0015</v>
@@ -1201,7 +1193,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1">
         <v>0.002</v>
@@ -1212,7 +1204,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1">
         <v>0.0025</v>
